--- a/biology/Médecine/1283_en_santé_et_médecine/1283_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1283_en_santé_et_médecine/1283_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1283_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1283_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1283 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1283_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1283_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Théobald, sire de Berles, établit une léproserie à Monchy, en Artois[2].
-L'existence de corporations d'apothicaires est attestée en Catalogne dans une ordonnance de Pierre III, roi d'Aragon et de Valence, comte de Barcelone, qui leur accorde certains privilèges[3].
-1283-1284 : le sultan mamelouk Kélaoun fait agrandir et rénover l'hôpital du Caire (en), qui ne sera détruit qu'en 1910[4].
-1283-1308 : Bernard de Gordon, auteur en 1305 du Lilium medicine, enseigne la médecine à Montpellier[5].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Théobald, sire de Berles, établit une léproserie à Monchy, en Artois.
+L'existence de corporations d'apothicaires est attestée en Catalogne dans une ordonnance de Pierre III, roi d'Aragon et de Valence, comte de Barcelone, qui leur accorde certains privilèges.
+1283-1284 : le sultan mamelouk Kélaoun fait agrandir et rénover l'hôpital du Caire (en), qui ne sera détruit qu'en 1910.
+1283-1308 : Bernard de Gordon, auteur en 1305 du Lilium medicine, enseigne la médecine à Montpellier.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1283_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1283_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>29 mars (22 Adar II 5043) : sous le titre de Sefer ha-Perakim, Nathan Hamati, médecin du pape Boniface VIII, achève sa traduction en hébreu des Aphorismes d'Hippocrate avec les Commentaires de Galien[6].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>29 mars (22 Adar II 5043) : sous le titre de Sefer ha-Perakim, Nathan Hamati, médecin du pape Boniface VIII, achève sa traduction en hébreu des Aphorismes d'Hippocrate avec les Commentaires de Galien.</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1283_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1283_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,15 +590,17 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Fl. Étienne de Grancey, médecin, Dijon[7].
-Fl. Jean Furnerii, Provins[7].
-Fl. Raymond, peut-être médecin, curé de Belleville en Savoie[8].
-1261-1283 : fl. Étienne de Jancigny, médecin à Dijon en Bourgogne, enterré à l'abbaye Saint-Bénigne[9].
-Vers 1277-1283 : fl. Salomon, médecin juif de Narbonne, probablement établi à Perpignan[8].
-1283-1284 : fl. Gentu[9] et Sanche[8], médecins, et Aceu[9], chirurgien juif, tous trois au service de la Navarre.
-1283-1292 : fl. Milon, barbier parisien[8].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fl. Étienne de Grancey, médecin, Dijon.
+Fl. Jean Furnerii, Provins.
+Fl. Raymond, peut-être médecin, curé de Belleville en Savoie.
+1261-1283 : fl. Étienne de Jancigny, médecin à Dijon en Bourgogne, enterré à l'abbaye Saint-Bénigne.
+Vers 1277-1283 : fl. Salomon, médecin juif de Narbonne, probablement établi à Perpignan.
+1283-1284 : fl. Gentu et Sanche, médecins, et Aceu, chirurgien juif, tous trois au service de la Navarre.
+1283-1292 : fl. Milon, barbier parisien.</t>
         </is>
       </c>
     </row>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1283_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1283_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,9 +628,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Galvano Fiamma (mort en 1344), théologien, philosophe et historiographe italien qui aurait enseigné la physique d'Aristote et la théologie aux étudiants en médecine du couvent de San Tommaso à Pavie[10].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Galvano Fiamma (mort en 1344), théologien, philosophe et historiographe italien qui aurait enseigné la physique d'Aristote et la théologie aux étudiants en médecine du couvent de San Tommaso à Pavie.</t>
         </is>
       </c>
     </row>
@@ -622,7 +642,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1283_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1283_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -640,10 +660,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Moïse ben Samuel ibn Tibbon (né vers 1200), auteur de nombreuses traductions médicales de l'arabe en hébreu, dont celle des Islah Almagisti de Jabir ibn-Aflah, et dont d'autres peuvent être datées : le Canon d'Avicenne avec le commentaire d'Averroès, en 1260 ; les Aphorismes d'Hippocrate avec le commentaire de Maïmonide, entre 1257 et 1267 ; le Livre de la division et de la distinction de Rhazès, en 1257, ou la Diététique de Maïmonide, en 1244[7].
-1283 au plus tard : Guillaume de Monmelian, médecin du Puy, devait  cinquante  livres tournois aux Templiers de la ville[9].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Moïse ben Samuel ibn Tibbon (né vers 1200), auteur de nombreuses traductions médicales de l'arabe en hébreu, dont celle des Islah Almagisti de Jabir ibn-Aflah, et dont d'autres peuvent être datées : le Canon d'Avicenne avec le commentaire d'Averroès, en 1260 ; les Aphorismes d'Hippocrate avec le commentaire de Maïmonide, entre 1257 et 1267 ; le Livre de la division et de la distinction de Rhazès, en 1257, ou la Diététique de Maïmonide, en 1244.
+1283 au plus tard : Guillaume de Monmelian, médecin du Puy, devait  cinquante  livres tournois aux Templiers de la ville.</t>
         </is>
       </c>
     </row>
